--- a/memories_count.xlsx
+++ b/memories_count.xlsx
@@ -464,10 +464,10 @@
         <v>44959</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>45047</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>45048</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -534,13 +534,13 @@
         <v>45049</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -548,13 +548,13 @@
         <v>45050</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -562,13 +562,13 @@
         <v>45051</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -576,13 +576,13 @@
         <v>45052</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -590,10 +590,10 @@
         <v>45053</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>45054</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>45055</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -632,10 +632,10 @@
         <v>45056</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>45057</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>45058</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>45063</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>45064</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>45066</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>45067</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>45068</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>45070</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>45071</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>45075</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>45076</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>45077</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>45082</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>45083</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>45085</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>45090</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>45093</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>45097</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>45098</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
